--- a/resources/code-review-result.xlsx
+++ b/resources/code-review-result.xlsx
@@ -9,52 +9,15 @@
   <sheets>
     <sheet name="Review Comments" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Review Comments'!$A$10:$N$10</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>identifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reviewer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Severity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerFactor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CodeFragment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +32,62 @@
   </si>
   <si>
     <t>责任人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检视人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检视意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码片段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检视时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪闭环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -168,23 +187,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -508,119 +545,157 @@
     <col min="7" max="7" width="17.125" customWidth="1"/>
     <col min="8" max="8" width="17.625" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="10" max="10" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="14" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="M10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>9</v>
+      <c r="N10" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A10:N10"/>
   <mergeCells count="4">
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D9 D11:D1048576">
       <formula1>"问题,建议,疑问"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E9 E11:E1048576">
       <formula1>"提示,一般,严重"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F9 F11:F1048576">
       <formula1>"编码基础类,业务功能类,安全可靠类"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L9 L11:L1048576">
+      <formula1>"接受,拒绝"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M9 M11:M1048576">
+      <formula1>"已修改,未修改,不涉及"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/code-review-result.xlsx
+++ b/resources/code-review-result.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23919"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD2A820-DB70-436E-9836-876579B74D90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Review Comments" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Review Comments'!$A$10:$N$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Review Comments'!$A$10:$P$10</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,42 +60,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>确认人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪闭环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>检视时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确认人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟踪闭环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意见类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严重等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题分类</t>
+    <t>项目版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,17 +221,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -242,7 +251,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -317,6 +326,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -352,6 +378,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,11 +570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -544,91 +587,99 @@
     <col min="6" max="6" width="16.625" customWidth="1"/>
     <col min="7" max="7" width="17.125" customWidth="1"/>
     <col min="8" max="8" width="17.625" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="11.75" customWidth="1"/>
-    <col min="13" max="14" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="11.75" customWidth="1"/>
+    <col min="15" max="16" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -639,13 +690,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>7</v>
@@ -656,45 +707,51 @@
       <c r="I10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="N10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="O10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="P10" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A10:N10"/>
+  <autoFilter ref="A10:P10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="4">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:P4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D9 D11:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D9 D11:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"问题,建议,疑问"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E9 E11:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E9 E11:E1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"提示,一般,严重"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F9 F11:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F9 F11:F1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"编码基础类,业务功能类,安全可靠类"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L9 L11:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N9 N11:N1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"接受,拒绝"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M9 M11:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O9 O11:O1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"已修改,未修改,不涉及"</formula1>
     </dataValidation>
   </dataValidations>

--- a/resources/code-review-result.xlsx
+++ b/resources/code-review-result.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24014"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD2A820-DB70-436E-9836-876579B74D90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FA552A-7EA9-4645-94F8-891D2D39BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,16 +11,20 @@
     <sheet name="Review Comments" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Review Comments'!$A$10:$P$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Review Comments'!$A$10:$O$10</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>项目名称</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>代码检视意见列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -28,22 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代码检视意见列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>责任人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检视人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检视意见</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,10 +53,6 @@
   </si>
   <si>
     <t>确认结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟踪闭环</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,15 +114,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="22"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -147,18 +122,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -215,23 +184,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -591,168 +554,101 @@
     <col min="12" max="12" width="21.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5" customWidth="1"/>
     <col min="14" max="14" width="11.75" customWidth="1"/>
-    <col min="15" max="16" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="K10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="M10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="N10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="O10" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A10:P10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="4">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:P4"/>
+  <autoFilter ref="A10:O10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D9 D11:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D1048576 D1:D9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"问题,建议,疑问"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E9 E11:E1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9 E11:E1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"提示,一般,严重"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F9 F11:F1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9 F11:F1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"编码基础类,业务功能类,安全可靠类"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N9 N11:N1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>"接受,拒绝"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O9 O11:O1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>"已修改,未修改,不涉及"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 N11:N1048576" xr:uid="{0434B6E9-3813-4C41-89D5-FDE7928163A1}">
+      <formula1>"未确认,已修改,待修改,拒绝"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
